--- a/antibiotic_names.xlsx
+++ b/antibiotic_names.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\AMR\isolate_data_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\lookup_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5FFF3C2C-9D06-4208-9A33-2BEA159AA494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8460ED5A-AC6B-4B53-9431-0D797516E865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16058" yWindow="915" windowWidth="14662" windowHeight="14775"/>
+    <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="antibiotic_names" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">antibiotic_names!$A$1:$B$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">antibiotic_names!$A$1:$B$123</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="138">
   <si>
     <t>antibiotic_old</t>
   </si>
@@ -428,12 +428,21 @@
   </si>
   <si>
     <t>vancomycin</t>
+  </si>
+  <si>
+    <t>nafcillin</t>
+  </si>
+  <si>
+    <t>quinupristin + dalfopristin</t>
+  </si>
+  <si>
+    <t>quinupristin dalfopristin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -973,9 +982,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1013,7 +1022,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1119,7 +1128,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1261,25 +1270,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1335,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1351,7 +1362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1367,7 +1378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1407,7 +1418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1447,7 +1458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1455,7 +1466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1471,7 +1482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1479,7 +1490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1487,7 +1498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1527,7 +1538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1554,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1559,7 +1570,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1567,7 +1578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1583,7 +1594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1591,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1599,7 +1610,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -1607,7 +1618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1615,7 +1626,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1623,7 +1634,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +1642,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -1639,7 +1650,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1647,7 +1658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1655,7 +1666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1663,7 +1674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1671,7 +1682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -1679,7 +1690,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1687,7 +1698,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -1695,7 +1706,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -1703,7 +1714,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1711,7 +1722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1719,7 +1730,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1727,7 +1738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1735,7 +1746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -1743,7 +1754,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -1751,7 +1762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -1759,7 +1770,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -1767,7 +1778,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -1783,7 +1794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -1791,7 +1802,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -1799,7 +1810,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -1807,7 +1818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -1815,7 +1826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -1823,7 +1834,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -1831,7 +1842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -1839,7 +1850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -1847,7 +1858,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -1855,7 +1866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -1863,7 +1874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -1887,7 +1898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -1895,7 +1906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -1903,7 +1914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -1911,7 +1922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -1919,7 +1930,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -1927,7 +1938,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -1935,7 +1946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -1943,7 +1954,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -1951,7 +1962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -1959,7 +1970,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -1967,7 +1978,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -1983,7 +1994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -1991,7 +2002,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>99</v>
       </c>
@@ -1999,7 +2010,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -2007,248 +2018,264 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>101</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>102</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>103</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>104</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>105</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>106</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>108</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>110</v>
-      </c>
-      <c r="B99" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>111</v>
       </c>
       <c r="B100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>113</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>136</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>114</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>115</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>116</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>117</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>118</v>
-      </c>
-      <c r="B107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>121</v>
       </c>
       <c r="B109" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>121</v>
+      </c>
+      <c r="B111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>122</v>
+      </c>
+      <c r="B112" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>123</v>
-      </c>
-      <c r="B111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>125</v>
       </c>
       <c r="B113" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>127</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>128</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>129</v>
-      </c>
-      <c r="B117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>131</v>
-      </c>
-      <c r="B118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>132</v>
       </c>
       <c r="B119" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>132</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>133</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>134</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>134</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B121"/>
+  <autoFilter ref="A1:B123" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>